--- a/Assignmets/recordAssignments.xlsx
+++ b/Assignmets/recordAssignments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TeachingTraining\Assignmets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{367B3ECF-BE86-4AD6-8C6B-68284CF4FC40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E3A332-A460-4684-909A-5FC06B8F9C21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{5B3171BE-951C-4D0E-A378-BDA5E33214FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Assi5</t>
+  </si>
+  <si>
+    <t>Assi6</t>
   </si>
 </sst>
 </file>
@@ -104,9 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,158 +430,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E75CD3-711F-4738-9FBB-16873ADFE3AE}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
-        <f>SUM(B2:F2)</f>
-        <v>18</v>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(B2:G2)</f>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2">
         <f>SUM(B3:F3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2">
         <f>SUM(B4:F4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
         <f>SUM(B5:F5)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2">
         <f>SUM(B6:F6)</f>
         <v>11</v>
       </c>

--- a/Assignmets/recordAssignments.xlsx
+++ b/Assignmets/recordAssignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TeachingTraining\Assignmets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E3A332-A460-4684-909A-5FC06B8F9C21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0978808D-9D93-42C7-9633-93CB93827B21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{5B3171BE-951C-4D0E-A378-BDA5E33214FC}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +515,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="2">
-        <f>SUM(B3:F3)</f>
+        <f>SUM(B3:G3)</f>
         <v>11</v>
       </c>
     </row>
@@ -540,9 +542,11 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="2">
-        <f>SUM(B4:F4)</f>
+        <f>SUM(B4:G4)</f>
         <v>10</v>
       </c>
     </row>
@@ -565,9 +569,11 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
       <c r="H5" s="2">
-        <f>SUM(B5:F5)</f>
+        <f>SUM(B5:G5)</f>
         <v>9</v>
       </c>
     </row>
@@ -590,9 +596,11 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
-        <f>SUM(B6:F6)</f>
+        <f>SUM(B6:G6)</f>
         <v>11</v>
       </c>
     </row>

--- a/Assignmets/recordAssignments.xlsx
+++ b/Assignmets/recordAssignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TeachingTraining\Assignmets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0978808D-9D93-42C7-9633-93CB93827B21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{466269AB-C5B5-42E8-8C5D-EB82BB1F78C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{5B3171BE-951C-4D0E-A378-BDA5E33214FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Assi6</t>
+  </si>
+  <si>
+    <t>Assi7</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E75CD3-711F-4738-9FBB-16873ADFE3AE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -440,10 +443,10 @@
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,10 +469,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,12 +497,15 @@
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(B2:G2)</f>
-        <v>23</v>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM(B2:H2)</f>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,12 +527,15 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <f>SUM(B3:G3)</f>
-        <v>11</v>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SUM(B3:H3)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,14 +555,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>SUM(B4:G4)</f>
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(B4:H4)</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -572,12 +587,15 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <f>SUM(B5:G5)</f>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(B5:H5)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,8 +617,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <f>SUM(B6:G6)</f>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f>SUM(B6:H6)</f>
         <v>11</v>
       </c>
     </row>
